--- a/Documents/Session Notes/SessionNotes_2.xlsx
+++ b/Documents/Session Notes/SessionNotes_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mcgill-my.sharepoint.com/personal/qi_chen6_mail_mcgill_ca/Documents/ECSE 429/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mcgill-my.sharepoint.com/personal/qi_chen6_mail_mcgill_ca/Documents/ECSE 429/ECSE429SoftwareTesting/Documents/Session Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="431" documentId="13_ncr:1_{76438F66-20F9-4164-B36D-2C14EAB23268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F43671E-052A-4AB3-B3CD-93240A8150D8}"/>
+  <xr:revisionPtr revIDLastSave="433" documentId="13_ncr:1_{76438F66-20F9-4164-B36D-2C14EAB23268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10016A03-6EAE-46FC-91B1-54D083F9BCD3}"/>
   <bookViews>
-    <workbookView xWindow="8325" yWindow="5985" windowWidth="22785" windowHeight="13905" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1065" yWindow="5595" windowWidth="22785" windowHeight="13905" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="63">
   <si>
     <t>Method</t>
   </si>
@@ -121,9 +121,6 @@
     <t>Identify capabilities and areas of potential instability of the “rest</t>
   </si>
   <si>
-    <t>api todo list manager”.</t>
-  </si>
-  <si>
     <t>Identify documented and undocumented “rest api todo list manager”</t>
   </si>
   <si>
@@ -227,6 +224,12 @@
   </si>
   <si>
     <t>qi.chen6@mail.mcgill.ca</t>
+  </si>
+  <si>
+    <t>api todo list manager” related to the todos relations capabilities.</t>
+  </si>
+  <si>
+    <t>Email</t>
   </si>
 </sst>
 </file>
@@ -346,7 +349,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -415,6 +418,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent2" xfId="1" builtinId="33"/>
@@ -1091,10 +1097,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -1343,7 +1345,7 @@
     </row>
     <row r="2" spans="1:9" ht="120" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>4</v>
@@ -1352,13 +1354,13 @@
         <v>5</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -1366,7 +1368,7 @@
     </row>
     <row r="3" spans="1:9" ht="120" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>7</v>
@@ -1375,7 +1377,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>9</v>
@@ -1387,7 +1389,7 @@
     </row>
     <row r="4" spans="1:9" ht="120" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>10</v>
@@ -1396,13 +1398,13 @@
         <v>5</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G4" s="16"/>
       <c r="H4" s="17"/>
@@ -1410,7 +1412,7 @@
     </row>
     <row r="5" spans="1:9" ht="120" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>11</v>
@@ -1419,7 +1421,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>9</v>
@@ -1431,7 +1433,7 @@
     </row>
     <row r="6" spans="1:9" ht="120" customHeight="1">
       <c r="A6" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>12</v>
@@ -1440,38 +1442,38 @@
         <v>8</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G6" s="16"/>
       <c r="H6" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" ht="120" customHeight="1">
       <c r="A7" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="20"/>
@@ -1479,7 +1481,7 @@
     </row>
     <row r="8" spans="1:9" ht="120" customHeight="1">
       <c r="A8" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>13</v>
@@ -1488,7 +1490,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>9</v>
@@ -1500,7 +1502,7 @@
     </row>
     <row r="9" spans="1:9" ht="120" customHeight="1">
       <c r="A9" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>4</v>
@@ -1509,7 +1511,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>9</v>
@@ -1521,7 +1523,7 @@
     </row>
     <row r="10" spans="1:9" ht="120" customHeight="1">
       <c r="A10" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>7</v>
@@ -1530,7 +1532,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>9</v>
@@ -1542,7 +1544,7 @@
     </row>
     <row r="11" spans="1:9" ht="120" customHeight="1">
       <c r="A11" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>10</v>
@@ -1551,7 +1553,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>9</v>
@@ -1563,7 +1565,7 @@
     </row>
     <row r="12" spans="1:9" ht="120" customHeight="1">
       <c r="A12" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>11</v>
@@ -1572,13 +1574,13 @@
         <v>5</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>6</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G12" s="16"/>
       <c r="H12" s="17"/>
@@ -1586,7 +1588,7 @@
     </row>
     <row r="13" spans="1:9" ht="120" customHeight="1">
       <c r="A13" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>12</v>
@@ -1595,32 +1597,32 @@
         <v>8</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>6</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13" s="16"/>
       <c r="H13" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" ht="120" customHeight="1">
       <c r="A14" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>9</v>
@@ -1632,7 +1634,7 @@
     </row>
     <row r="15" spans="1:9" ht="120" customHeight="1">
       <c r="A15" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>13</v>
@@ -1641,7 +1643,7 @@
         <v>8</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>9</v>
@@ -1653,7 +1655,7 @@
     </row>
     <row r="16" spans="1:9" ht="120" customHeight="1">
       <c r="A16" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>4</v>
@@ -1662,23 +1664,23 @@
         <v>5</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>6</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" ht="120" customHeight="1">
       <c r="A17" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>7</v>
@@ -1687,7 +1689,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>9</v>
@@ -1699,7 +1701,7 @@
     </row>
     <row r="18" spans="1:9" ht="120" customHeight="1">
       <c r="A18" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>10</v>
@@ -1708,23 +1710,23 @@
         <v>5</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>6</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H18" s="17"/>
       <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9" ht="120" customHeight="1">
       <c r="A19" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>11</v>
@@ -1733,7 +1735,7 @@
         <v>8</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>9</v>
@@ -1745,7 +1747,7 @@
     </row>
     <row r="20" spans="1:9" ht="120" customHeight="1">
       <c r="A20" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>12</v>
@@ -1754,38 +1756,38 @@
         <v>8</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>6</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G20" s="16"/>
       <c r="H20" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:9" ht="120" customHeight="1">
       <c r="A21" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>6</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G21" s="16"/>
       <c r="H21" s="20"/>
@@ -1793,7 +1795,7 @@
     </row>
     <row r="22" spans="1:9" ht="120" customHeight="1">
       <c r="A22" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>13</v>
@@ -1802,7 +1804,7 @@
         <v>8</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>9</v>
@@ -1814,7 +1816,7 @@
     </row>
     <row r="23" spans="1:9" ht="120" customHeight="1">
       <c r="A23" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>4</v>
@@ -1823,7 +1825,7 @@
         <v>8</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>9</v>
@@ -1835,7 +1837,7 @@
     </row>
     <row r="24" spans="1:9" ht="120" customHeight="1">
       <c r="A24" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>7</v>
@@ -1844,7 +1846,7 @@
         <v>8</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>9</v>
@@ -1856,7 +1858,7 @@
     </row>
     <row r="25" spans="1:9" ht="120" customHeight="1">
       <c r="A25" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>10</v>
@@ -1865,7 +1867,7 @@
         <v>8</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>9</v>
@@ -1877,7 +1879,7 @@
     </row>
     <row r="26" spans="1:9" ht="120" customHeight="1">
       <c r="A26" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>11</v>
@@ -1886,13 +1888,13 @@
         <v>5</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E26" s="13" t="s">
         <v>6</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G26" s="16"/>
       <c r="H26" s="17"/>
@@ -1900,7 +1902,7 @@
     </row>
     <row r="27" spans="1:9" ht="120" customHeight="1">
       <c r="A27" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>12</v>
@@ -1909,32 +1911,32 @@
         <v>8</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E27" s="13" t="s">
         <v>6</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G27" s="16"/>
       <c r="H27" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I27" s="6"/>
     </row>
     <row r="28" spans="1:9" ht="120" customHeight="1">
       <c r="A28" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E28" s="13" t="s">
         <v>9</v>
@@ -1946,7 +1948,7 @@
     </row>
     <row r="29" spans="1:9" ht="120" customHeight="1">
       <c r="A29" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>13</v>
@@ -1955,7 +1957,7 @@
         <v>8</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E29" s="13" t="s">
         <v>9</v>
@@ -3434,7 +3436,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1"/>
@@ -3472,9 +3474,11 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
-      <c r="A3" s="2"/>
+      <c r="A3" s="26" t="s">
+        <v>62</v>
+      </c>
       <c r="B3" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -3500,7 +3504,7 @@
     <row r="5" spans="1:8" ht="15" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -3512,7 +3516,7 @@
     <row r="6" spans="1:8" ht="15" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -3524,7 +3528,7 @@
     <row r="7" spans="1:8" ht="15" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -3536,7 +3540,7 @@
     <row r="8" spans="1:8" ht="15" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -3548,7 +3552,7 @@
     <row r="9" spans="1:8" ht="15" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -3560,7 +3564,7 @@
     <row r="10" spans="1:8" ht="15" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -3572,7 +3576,7 @@
     <row r="11" spans="1:8" ht="15" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -3596,7 +3600,7 @@
         <v>17</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -3670,7 +3674,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -3683,7 +3687,7 @@
     <row r="21" spans="1:10" ht="15" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -3707,7 +3711,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -3719,7 +3723,7 @@
     <row r="24" spans="1:10" ht="15" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -3731,7 +3735,7 @@
     <row r="25" spans="1:10" ht="15" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3743,7 +3747,7 @@
     <row r="26" spans="1:10" ht="15" customHeight="1">
       <c r="A26" s="4"/>
       <c r="B26" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1">
